--- a/src/hw/doc/COMPARATIF TOSMETRE.xlsx
+++ b/src/hw/doc/COMPARATIF TOSMETRE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="76">
   <si>
     <t xml:space="preserve">Frequence </t>
   </si>
@@ -95,9 +95,6 @@
     <t>daiwa</t>
   </si>
   <si>
-    <t>cn 501</t>
-  </si>
-  <si>
     <t>cn501 vn</t>
   </si>
   <si>
@@ -249,12 +246,24 @@
   </si>
   <si>
     <t>1.05 a 1000mhz</t>
+  </si>
+  <si>
+    <t>Prix</t>
+  </si>
+  <si>
+    <t>cn 501 h2</t>
+  </si>
+  <si>
+    <t>cn 501 h</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -302,7 +311,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -550,11 +559,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -566,26 +590,116 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -599,190 +713,109 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1081,8 +1114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:Z15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1103,709 +1136,784 @@
       <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="53" t="s">
+      <c r="D1" s="53"/>
+      <c r="E1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z1" s="71"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z1" s="17"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="61" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="50" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="42" t="s">
+      <c r="K2" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="K2" s="42" t="s">
+      <c r="L2" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="42" t="s">
+      <c r="M2" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="42" t="s">
+      <c r="N2" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="20" t="s">
+      <c r="O2" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="20" t="s">
+      <c r="Q2" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="20" t="s">
+      <c r="R2" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="R2" s="20" t="s">
+      <c r="S2" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="S2" s="20" t="s">
+      <c r="T2" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="U2" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="V2" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="T2" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="U2" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="V2" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="W2" s="22" t="s">
+      <c r="W2" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="X2" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="X2" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y2" s="72" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z2" s="73" t="s">
-        <v>70</v>
+      <c r="Y2" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z2" s="15" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="64"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="51"/>
       <c r="E3" s="55"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="75"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="69"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="16"/>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="65" t="s">
+      <c r="B4" s="47"/>
+      <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="50" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="K4" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="42" t="s">
+      <c r="N4" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4" s="20" t="s">
+      <c r="R4" s="38"/>
+      <c r="S4" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="P4" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q4" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="R4" s="25"/>
-      <c r="S4" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="T4" s="25"/>
-      <c r="U4" s="27" t="s">
+      <c r="T4" s="38"/>
+      <c r="U4" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="V4" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="V4" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="W4" s="27" t="s">
+      <c r="W4" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="X4" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="X4" s="27" t="s">
+      <c r="Y4" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z4" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A5" s="48"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="51"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="47"/>
+      <c r="C6" s="60">
+        <v>200</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="23">
+        <v>200</v>
+      </c>
+      <c r="G6" s="23">
+        <v>1500</v>
+      </c>
+      <c r="H6" s="23">
+        <v>2000</v>
+      </c>
+      <c r="I6" s="23">
+        <v>200</v>
+      </c>
+      <c r="J6" s="23">
+        <v>2000</v>
+      </c>
+      <c r="K6" s="23">
+        <v>2000</v>
+      </c>
+      <c r="L6" s="23">
+        <v>3000</v>
+      </c>
+      <c r="M6" s="23">
+        <v>200</v>
+      </c>
+      <c r="N6" s="23">
+        <v>20</v>
+      </c>
+      <c r="O6" s="31">
+        <v>3000</v>
+      </c>
+      <c r="P6" s="31">
+        <v>200</v>
+      </c>
+      <c r="Q6" s="36">
+        <v>200</v>
+      </c>
+      <c r="R6" s="38"/>
+      <c r="S6" s="36">
+        <v>200</v>
+      </c>
+      <c r="T6" s="38"/>
+      <c r="U6" s="31">
+        <v>200</v>
+      </c>
+      <c r="V6" s="31">
         <v>60</v>
       </c>
-      <c r="Y4" s="76" t="s">
+      <c r="W6" s="31">
+        <v>300</v>
+      </c>
+      <c r="X6" s="31">
+        <v>300</v>
+      </c>
+      <c r="Y6" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="Z4" s="76" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="64"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="23"/>
-      <c r="X5" s="23"/>
-      <c r="Y5" s="74"/>
-      <c r="Z5" s="74"/>
-    </row>
-    <row r="6" spans="1:26">
-      <c r="A6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="67">
-        <v>200</v>
-      </c>
-      <c r="D6" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="42">
-        <v>200</v>
-      </c>
-      <c r="G6" s="42">
-        <v>1500</v>
-      </c>
-      <c r="H6" s="42">
-        <v>2000</v>
-      </c>
-      <c r="I6" s="42">
-        <v>200</v>
-      </c>
-      <c r="J6" s="42">
-        <v>2000</v>
-      </c>
-      <c r="K6" s="42">
-        <v>2000</v>
-      </c>
-      <c r="L6" s="42">
-        <v>3000</v>
-      </c>
-      <c r="M6" s="42">
-        <v>200</v>
-      </c>
-      <c r="N6" s="42">
-        <v>20</v>
-      </c>
-      <c r="O6" s="20">
-        <v>3000</v>
-      </c>
-      <c r="P6" s="20">
-        <v>200</v>
-      </c>
-      <c r="Q6" s="21">
-        <v>200</v>
-      </c>
-      <c r="R6" s="25"/>
-      <c r="S6" s="21">
-        <v>200</v>
-      </c>
-      <c r="T6" s="25"/>
-      <c r="U6" s="20">
-        <v>200</v>
-      </c>
-      <c r="V6" s="20">
-        <v>60</v>
-      </c>
-      <c r="W6" s="20">
-        <v>300</v>
-      </c>
-      <c r="X6" s="20">
-        <v>300</v>
-      </c>
-      <c r="Y6" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z6" s="72" t="s">
-        <v>69</v>
+      <c r="Z6" s="9" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="64"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="51"/>
       <c r="E7" s="57"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="74"/>
-      <c r="Z7" s="74"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="67" t="s">
+      <c r="B8" s="47"/>
+      <c r="C8" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="62">
+      <c r="D8" s="50">
         <v>0.3</v>
       </c>
       <c r="E8" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="27">
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="40">
         <v>0.1</v>
       </c>
-      <c r="P8" s="27">
+      <c r="P8" s="40">
         <v>0.15</v>
       </c>
-      <c r="Q8" s="26">
+      <c r="Q8" s="32">
         <v>0.2</v>
       </c>
-      <c r="R8" s="29"/>
-      <c r="S8" s="26" t="s">
+      <c r="R8" s="33"/>
+      <c r="S8" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="T8" s="33"/>
+      <c r="U8" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="T8" s="29"/>
-      <c r="U8" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="V8" s="27">
+      <c r="V8" s="40">
         <v>0.3</v>
       </c>
-      <c r="W8" s="27"/>
-      <c r="X8" s="27"/>
-      <c r="Y8" s="76" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z8" s="76" t="s">
+      <c r="W8" s="40"/>
+      <c r="X8" s="40"/>
+      <c r="Y8" s="11" t="s">
         <v>72</v>
       </c>
+      <c r="Z8" s="11" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="64"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="51"/>
       <c r="E9" s="57"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="23"/>
-      <c r="W9" s="23"/>
-      <c r="X9" s="23"/>
-      <c r="Y9" s="74"/>
-      <c r="Z9" s="74"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="67" t="s">
+      <c r="B10" s="47"/>
+      <c r="C10" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="62" t="s">
+      <c r="D10" s="50" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="42" t="s">
+      <c r="F10" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="S10" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42" t="s">
+      <c r="T10" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="U10" s="33"/>
+      <c r="V10" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="W10" s="31"/>
+      <c r="X10" s="31"/>
+      <c r="Y10" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="S10" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="T10" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="U10" s="29"/>
-      <c r="V10" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="W10" s="20"/>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="72" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z10" s="72"/>
+      <c r="Z10" s="9"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="70"/>
+      <c r="A11" s="65"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="59"/>
       <c r="E11" s="57"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="31"/>
-      <c r="V11" s="23"/>
-      <c r="W11" s="23"/>
-      <c r="X11" s="23"/>
-      <c r="Y11" s="74"/>
-      <c r="Z11" s="74"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="62" t="s">
+      <c r="B12" s="47"/>
+      <c r="C12" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="62" t="s">
+      <c r="D12" s="50" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42" t="s">
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42" t="s">
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="72"/>
-      <c r="Z12" s="72"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="31"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
       <c r="E13" s="57"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="23"/>
-      <c r="W13" s="23"/>
-      <c r="X13" s="23"/>
-      <c r="Y13" s="74"/>
-      <c r="Z13" s="74"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="47"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="30">
+        <v>0.1</v>
+      </c>
+      <c r="G14" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="49">
-        <v>0.1</v>
-      </c>
-      <c r="G14" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="33" t="s">
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="P14" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="P14" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q14" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="R14" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="S14" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="T14" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="U14" s="36"/>
-      <c r="V14" s="36"/>
-      <c r="W14" s="37">
+      <c r="Q14" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="R14" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="S14" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="T14" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="67">
         <v>0.15</v>
       </c>
-      <c r="X14" s="37">
+      <c r="X14" s="67">
         <v>0.15</v>
       </c>
-      <c r="Y14" s="77">
+      <c r="Y14" s="12">
         <v>0.05</v>
       </c>
-      <c r="Z14" s="77">
+      <c r="Z14" s="12">
         <v>0.05</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A15" s="6"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="36"/>
-      <c r="V15" s="36"/>
-      <c r="W15" s="23"/>
-      <c r="X15" s="23"/>
-      <c r="Y15" s="74"/>
-      <c r="Z15" s="74"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="75"/>
+      <c r="O15" s="76"/>
+      <c r="P15" s="77"/>
+      <c r="Q15" s="78"/>
+      <c r="R15" s="78"/>
+      <c r="S15" s="78"/>
+      <c r="T15" s="78"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="78"/>
+      <c r="X15" s="78"/>
+      <c r="Y15" s="79"/>
+      <c r="Z15" s="79"/>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-    </row>
-    <row r="17" spans="1:22">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-    </row>
-    <row r="18" spans="1:22" s="4" customFormat="1"/>
-    <row r="19" spans="1:22" s="4" customFormat="1"/>
-    <row r="20" spans="1:22" s="4" customFormat="1"/>
-    <row r="21" spans="1:22" s="4" customFormat="1"/>
-    <row r="22" spans="1:22" s="4" customFormat="1"/>
-    <row r="23" spans="1:22" s="4" customFormat="1"/>
-    <row r="24" spans="1:22" s="4" customFormat="1"/>
-    <row r="25" spans="1:22" s="4" customFormat="1"/>
-    <row r="26" spans="1:22" s="4" customFormat="1"/>
-    <row r="27" spans="1:22" s="4" customFormat="1"/>
-    <row r="28" spans="1:22" s="4" customFormat="1"/>
-    <row r="29" spans="1:22" s="4" customFormat="1"/>
-    <row r="30" spans="1:22" s="4" customFormat="1"/>
-    <row r="31" spans="1:22" s="4" customFormat="1"/>
-    <row r="32" spans="1:22" s="4" customFormat="1"/>
+      <c r="A16" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="70"/>
+      <c r="C16" s="80">
+        <v>115.83</v>
+      </c>
+      <c r="D16" s="80">
+        <v>85</v>
+      </c>
+      <c r="E16" s="80">
+        <v>51.3</v>
+      </c>
+      <c r="F16" s="80">
+        <v>129</v>
+      </c>
+      <c r="G16" s="80">
+        <v>99</v>
+      </c>
+      <c r="H16" s="80">
+        <v>105</v>
+      </c>
+      <c r="I16" s="80">
+        <v>105</v>
+      </c>
+      <c r="J16" s="80">
+        <v>175</v>
+      </c>
+      <c r="K16" s="80">
+        <v>146</v>
+      </c>
+      <c r="L16" s="80">
+        <v>179</v>
+      </c>
+      <c r="M16" s="80">
+        <v>126</v>
+      </c>
+      <c r="N16" s="80">
+        <v>255</v>
+      </c>
+      <c r="O16" s="80">
+        <v>89</v>
+      </c>
+      <c r="P16" s="80">
+        <v>80</v>
+      </c>
+      <c r="Q16" s="80">
+        <v>91.5</v>
+      </c>
+      <c r="R16" s="80">
+        <v>91.5</v>
+      </c>
+      <c r="S16" s="80">
+        <v>137</v>
+      </c>
+      <c r="T16" s="80">
+        <v>142</v>
+      </c>
+      <c r="U16" s="80">
+        <v>220</v>
+      </c>
+      <c r="V16" s="80">
+        <v>59</v>
+      </c>
+      <c r="W16" s="80">
+        <v>79</v>
+      </c>
+      <c r="X16" s="80">
+        <v>85</v>
+      </c>
+      <c r="Y16" s="80">
+        <v>359</v>
+      </c>
+      <c r="Z16" s="80">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A17" s="48"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="80"/>
+      <c r="O17" s="80"/>
+      <c r="P17" s="80"/>
+      <c r="Q17" s="80"/>
+      <c r="R17" s="80"/>
+      <c r="S17" s="80"/>
+      <c r="T17" s="80"/>
+      <c r="U17" s="80"/>
+      <c r="V17" s="80"/>
+      <c r="W17" s="80"/>
+      <c r="X17" s="80"/>
+      <c r="Y17" s="80"/>
+      <c r="Z17" s="80"/>
+    </row>
+    <row r="18" spans="1:26" s="4" customFormat="1"/>
+    <row r="19" spans="1:26" s="4" customFormat="1"/>
+    <row r="20" spans="1:26" s="4" customFormat="1"/>
+    <row r="21" spans="1:26" s="4" customFormat="1"/>
+    <row r="22" spans="1:26" s="4" customFormat="1"/>
+    <row r="23" spans="1:26" s="4" customFormat="1"/>
+    <row r="24" spans="1:26" s="4" customFormat="1"/>
+    <row r="25" spans="1:26" s="4" customFormat="1"/>
+    <row r="26" spans="1:26" s="4" customFormat="1"/>
+    <row r="27" spans="1:26" s="4" customFormat="1"/>
+    <row r="28" spans="1:26" s="4" customFormat="1"/>
+    <row r="29" spans="1:26" s="4" customFormat="1"/>
+    <row r="30" spans="1:26" s="4" customFormat="1"/>
+    <row r="31" spans="1:26" s="4" customFormat="1"/>
+    <row r="32" spans="1:26" s="4" customFormat="1"/>
     <row r="33" spans="1:7" s="4" customFormat="1"/>
     <row r="34" spans="1:7" s="4" customFormat="1"/>
     <row r="35" spans="1:7" s="4" customFormat="1"/>
@@ -1864,47 +1972,121 @@
       <c r="G41" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="162">
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="Y10:Y11"/>
-    <mergeCell ref="Y12:Y13"/>
-    <mergeCell ref="Y14:Y15"/>
-    <mergeCell ref="O1:X1"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="Z10:Z11"/>
-    <mergeCell ref="Z12:Z13"/>
-    <mergeCell ref="Z14:Z15"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="F1:N1"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
+  <mergeCells count="185">
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="W16:W17"/>
+    <mergeCell ref="X16:X17"/>
+    <mergeCell ref="Y16:Y17"/>
+    <mergeCell ref="Z16:Z17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="W10:W11"/>
+    <mergeCell ref="X10:X11"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="W12:W13"/>
+    <mergeCell ref="X12:X13"/>
+    <mergeCell ref="W14:W15"/>
+    <mergeCell ref="X14:X15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="G14:N15"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q6:R7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="U12:U13"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="Q4:R5"/>
+    <mergeCell ref="S4:T5"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
     <mergeCell ref="R16:R17"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F5"/>
@@ -1929,104 +2111,53 @@
     <mergeCell ref="L10:L11"/>
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="G4:G5"/>
+    <mergeCell ref="F1:N1"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="O10:Q11"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="Y10:Y11"/>
+    <mergeCell ref="Y12:Y13"/>
+    <mergeCell ref="Y14:Y15"/>
+    <mergeCell ref="O1:X1"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="Z10:Z11"/>
+    <mergeCell ref="Z12:Z13"/>
+    <mergeCell ref="Z14:Z15"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="Q14:Q15"/>
     <mergeCell ref="V12:V13"/>
     <mergeCell ref="Q8:R9"/>
     <mergeCell ref="S8:T9"/>
-    <mergeCell ref="O10:Q11"/>
     <mergeCell ref="T10:U11"/>
     <mergeCell ref="S6:T7"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="V10:V11"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="U12:U13"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="Q4:R5"/>
-    <mergeCell ref="S4:T5"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="G14:N15"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q6:R7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="W12:W13"/>
-    <mergeCell ref="X12:X13"/>
-    <mergeCell ref="W14:W15"/>
-    <mergeCell ref="X14:X15"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="W10:W11"/>
-    <mergeCell ref="X10:X11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
